--- a/Jogos_do_Dia/2023-07-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>League</t>
   </si>
@@ -172,6 +172,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Daegu</t>
   </si>
   <si>
@@ -199,12 +202,12 @@
     <t>Smouha SC</t>
   </si>
   <si>
+    <t>Olimpija</t>
+  </si>
+  <si>
     <t>Hamrun Spartans</t>
   </si>
   <si>
-    <t>Olimpija</t>
-  </si>
-  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t>Independiente</t>
   </si>
   <si>
+    <t>Atlético Tucumán</t>
+  </si>
+  <si>
     <t>Gangwon</t>
   </si>
   <si>
@@ -256,12 +262,12 @@
     <t>ENPPI</t>
   </si>
   <si>
+    <t>Valmiera / BSS</t>
+  </si>
+  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
-    <t>Valmiera / BSS</t>
-  </si>
-  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
   </si>
   <si>
     <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Gimnasia La Plata</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,19 +781,19 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H2">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="I2">
-        <v>3.55</v>
+        <v>3.88</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -799,7 +808,7 @@
         <v>2.9</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O2">
         <v>1.57</v>
@@ -879,19 +888,19 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="H3">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="I3">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -906,10 +915,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="O3">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -986,19 +995,19 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H4">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="I4">
-        <v>6.4</v>
+        <v>6.53</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1013,10 +1022,10 @@
         <v>3.32</v>
       </c>
       <c r="N4">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="O4">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P4">
         <v>1.35</v>
@@ -1093,10 +1102,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1.38</v>
@@ -1200,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1307,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="H7">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="I7">
-        <v>3.71</v>
+        <v>2.66</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -1414,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="H8">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="I8">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1441,10 +1450,10 @@
         <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="P8">
         <v>1.33</v>
@@ -1521,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -1628,19 +1637,19 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>3.01</v>
       </c>
       <c r="I10">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="J10">
         <v>1.1</v>
@@ -1655,10 +1664,10 @@
         <v>2.65</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
         <v>1.5</v>
@@ -1735,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11">
-        <v>4.89</v>
+        <v>1.33</v>
       </c>
       <c r="H11">
-        <v>4.11</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>1.49</v>
+        <v>7.5</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1756,16 +1765,16 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="O11">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="P11">
         <v>1.3</v>
@@ -1774,19 +1783,19 @@
         <v>3.25</v>
       </c>
       <c r="R11">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="T11">
-        <v>2.55</v>
+        <v>1.03</v>
       </c>
       <c r="U11">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="V11">
-        <v>1.08</v>
+        <v>3.25</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1842,19 +1851,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>1.33</v>
+        <v>5.47</v>
       </c>
       <c r="H12">
-        <v>4.3</v>
+        <v>4.19</v>
       </c>
       <c r="I12">
-        <v>6.75</v>
+        <v>1.52</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1863,16 +1872,16 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N12">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="O12">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="P12">
         <v>1.3</v>
@@ -1881,19 +1890,19 @@
         <v>3.25</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S12">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>1.03</v>
+        <v>2.55</v>
       </c>
       <c r="U12">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="V12">
-        <v>3.25</v>
+        <v>1.08</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1949,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H13">
-        <v>5.35</v>
+        <v>5.26</v>
       </c>
       <c r="I13">
-        <v>9.550000000000001</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -1976,10 +1985,10 @@
         <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O13">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2056,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.19</v>
       </c>
       <c r="I14">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J14">
         <v>1.08</v>
@@ -2083,10 +2092,10 @@
         <v>2.8</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="P14">
         <v>1.48</v>
@@ -2163,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>3.9</v>
+        <v>4.18</v>
       </c>
       <c r="H15">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="I15">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2190,10 +2199,10 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O15">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="P15">
         <v>1.33</v>
@@ -2270,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>4.25</v>
+        <v>3.13</v>
       </c>
       <c r="I16">
-        <v>1.55</v>
+        <v>2.39</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -2297,10 +2306,10 @@
         <v>3.3</v>
       </c>
       <c r="N16">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P16">
         <v>1.41</v>
@@ -2377,19 +2386,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H17">
-        <v>3.55</v>
+        <v>3.74</v>
       </c>
       <c r="I17">
-        <v>4.15</v>
+        <v>4.57</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -2404,10 +2413,10 @@
         <v>3.4</v>
       </c>
       <c r="N17">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="O17">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="P17">
         <v>1.36</v>
@@ -2484,10 +2493,10 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2591,58 +2600,58 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W19">
         <v>2</v>
@@ -2698,10 +2707,10 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <v>2.55</v>
@@ -2789,6 +2798,113 @@
       </c>
       <c r="AI20">
         <v>3.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21">
+        <v>2.1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3.8</v>
+      </c>
+      <c r="J21">
+        <v>1.08</v>
+      </c>
+      <c r="K21">
+        <v>7.15</v>
+      </c>
+      <c r="L21">
+        <v>1.5</v>
+      </c>
+      <c r="M21">
+        <v>2.4</v>
+      </c>
+      <c r="N21">
+        <v>2.45</v>
+      </c>
+      <c r="O21">
+        <v>1.47</v>
+      </c>
+      <c r="P21">
+        <v>1.57</v>
+      </c>
+      <c r="Q21">
+        <v>2.25</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>1.62</v>
+      </c>
+      <c r="T21">
+        <v>1.25</v>
+      </c>
+      <c r="U21">
+        <v>1.36</v>
+      </c>
+      <c r="V21">
+        <v>1.7</v>
+      </c>
+      <c r="W21">
+        <v>1.45</v>
+      </c>
+      <c r="X21">
+        <v>0.75</v>
+      </c>
+      <c r="Y21">
+        <v>1.47</v>
+      </c>
+      <c r="Z21">
+        <v>1.32</v>
+      </c>
+      <c r="AA21">
+        <v>2.79</v>
+      </c>
+      <c r="AB21">
+        <v>1.59</v>
+      </c>
+      <c r="AC21">
+        <v>8</v>
+      </c>
+      <c r="AD21">
+        <v>2.8</v>
+      </c>
+      <c r="AE21">
+        <v>1.27</v>
+      </c>
+      <c r="AF21">
+        <v>1.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.85</v>
+      </c>
+      <c r="AH21">
+        <v>2.45</v>
+      </c>
+      <c r="AI21">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -211,18 +211,18 @@
     <t>Raków Częstochowa</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>KÍ</t>
+  </si>
+  <si>
     <t>Ballkani</t>
   </si>
   <si>
-    <t>KÍ</t>
-  </si>
-  <si>
     <t>Partizani Tirana</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Rosario Central</t>
   </si>
   <si>
@@ -271,16 +271,16 @@
     <t>Tallinna FC Flora</t>
   </si>
   <si>
+    <t>Breidablik</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
     <t>BATE</t>
-  </si>
-  <si>
-    <t>Breidablik</t>
   </si>
   <si>
     <t>Central Córdoba SdE</t>
@@ -787,13 +787,13 @@
         <v>73</v>
       </c>
       <c r="G2">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -808,10 +808,10 @@
         <v>2.9</v>
       </c>
       <c r="N2">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
         <v>1.45</v>
@@ -835,10 +835,10 @@
         <v>1.65</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X2">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
         <v>1.42</v>
@@ -894,13 +894,13 @@
         <v>74</v>
       </c>
       <c r="G3">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -915,10 +915,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>1.93</v>
+        <v>1.61</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -942,10 +942,10 @@
         <v>1.55</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y3">
         <v>1.68</v>
@@ -1001,13 +1001,13 @@
         <v>75</v>
       </c>
       <c r="G4">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>4.03</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>6.53</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1022,10 +1022,10 @@
         <v>3.32</v>
       </c>
       <c r="N4">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="O4">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P4">
         <v>1.35</v>
@@ -1049,10 +1049,10 @@
         <v>2.4</v>
       </c>
       <c r="W4">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="X4">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>1.8</v>
@@ -1156,10 +1156,10 @@
         <v>2.8</v>
       </c>
       <c r="W5">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="Y5">
         <v>1.85</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Y6">
         <v>1.44</v>
@@ -1322,13 +1322,13 @@
         <v>78</v>
       </c>
       <c r="G7">
-        <v>2.58</v>
+        <v>2.15</v>
       </c>
       <c r="H7">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="I7">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -1343,10 +1343,10 @@
         <v>2.82</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="O7">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="P7">
         <v>1.47</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1385,28 +1385,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1429,13 +1429,13 @@
         <v>79</v>
       </c>
       <c r="G8">
-        <v>5.47</v>
+        <v>4.75</v>
       </c>
       <c r="H8">
-        <v>4.29</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1492,28 +1492,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1557,10 +1557,10 @@
         <v>2.97</v>
       </c>
       <c r="N9">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="O9">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P9">
         <v>1.42</v>
@@ -1584,10 +1584,10 @@
         <v>2.34</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1599,28 +1599,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1643,13 +1643,13 @@
         <v>81</v>
       </c>
       <c r="G10">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="H10">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="I10">
-        <v>3.43</v>
+        <v>3.18</v>
       </c>
       <c r="J10">
         <v>1.1</v>
@@ -1664,10 +1664,10 @@
         <v>2.65</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10">
         <v>1.5</v>
@@ -1691,10 +1691,10 @@
         <v>1.58</v>
       </c>
       <c r="W10">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="X10">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="Y10">
         <v>1.39</v>
@@ -1750,13 +1750,13 @@
         <v>82</v>
       </c>
       <c r="G11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1798,7 +1798,7 @@
         <v>3.25</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1813,28 +1813,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1857,13 +1857,13 @@
         <v>83</v>
       </c>
       <c r="G12">
-        <v>5.47</v>
+        <v>6.5</v>
       </c>
       <c r="H12">
-        <v>4.19</v>
+        <v>4.33</v>
       </c>
       <c r="I12">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1878,10 +1878,10 @@
         <v>4.2</v>
       </c>
       <c r="N12">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="O12">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="P12">
         <v>1.3</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1964,13 +1964,13 @@
         <v>84</v>
       </c>
       <c r="G13">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="H13">
-        <v>5.26</v>
+        <v>5.5</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -1985,10 +1985,10 @@
         <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O13">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P13">
         <v>1.3</v>
@@ -2012,7 +2012,7 @@
         <v>3.75</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2027,28 +2027,28 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2071,91 +2071,91 @@
         <v>85</v>
       </c>
       <c r="G14">
-        <v>3.42</v>
+        <v>1.3</v>
       </c>
       <c r="H14">
-        <v>3.19</v>
+        <v>4.75</v>
       </c>
       <c r="I14">
-        <v>2.14</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="M14">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="P14">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="Q14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R14">
+        <v>1.83</v>
+      </c>
+      <c r="S14">
+        <v>1.83</v>
+      </c>
+      <c r="T14">
+        <v>1.15</v>
+      </c>
+      <c r="U14">
+        <v>1.2</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="S14">
-        <v>1.75</v>
-      </c>
-      <c r="T14">
-        <v>1.87</v>
-      </c>
-      <c r="U14">
-        <v>1.25</v>
-      </c>
-      <c r="V14">
-        <v>1.18</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2178,13 +2178,13 @@
         <v>86</v>
       </c>
       <c r="G15">
-        <v>4.18</v>
+        <v>5.5</v>
       </c>
       <c r="H15">
-        <v>3.69</v>
+        <v>4.2</v>
       </c>
       <c r="I15">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2199,10 +2199,10 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="O15">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="P15">
         <v>1.33</v>
@@ -2226,10 +2226,10 @@
         <v>1.06</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2241,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2285,91 +2285,91 @@
         <v>87</v>
       </c>
       <c r="G16">
+        <v>3.75</v>
+      </c>
+      <c r="H16">
+        <v>3.1</v>
+      </c>
+      <c r="I16">
+        <v>1.91</v>
+      </c>
+      <c r="J16">
+        <v>1.08</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>1.4</v>
+      </c>
+      <c r="M16">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <v>2.1</v>
+      </c>
+      <c r="O16">
+        <v>1.74</v>
+      </c>
+      <c r="P16">
+        <v>1.48</v>
+      </c>
+      <c r="Q16">
+        <v>2.5</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1.75</v>
+      </c>
+      <c r="T16">
+        <v>1.87</v>
+      </c>
+      <c r="U16">
+        <v>1.25</v>
+      </c>
+      <c r="V16">
+        <v>1.18</v>
+      </c>
+      <c r="W16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>3.13</v>
-      </c>
-      <c r="I16">
-        <v>2.39</v>
-      </c>
-      <c r="J16">
-        <v>1.03</v>
-      </c>
-      <c r="K16">
-        <v>8.4</v>
-      </c>
-      <c r="L16">
-        <v>1.3</v>
-      </c>
-      <c r="M16">
-        <v>3.3</v>
-      </c>
-      <c r="N16">
-        <v>1.91</v>
-      </c>
-      <c r="O16">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>3.01</v>
+      </c>
+      <c r="AC16">
+        <v>7.1</v>
+      </c>
+      <c r="AD16">
+        <v>1.62</v>
+      </c>
+      <c r="AE16">
+        <v>1.25</v>
+      </c>
+      <c r="AF16">
+        <v>1.53</v>
+      </c>
+      <c r="AG16">
         <v>1.75</v>
       </c>
-      <c r="P16">
-        <v>1.41</v>
-      </c>
-      <c r="Q16">
-        <v>2.7</v>
-      </c>
-      <c r="R16">
-        <v>1.75</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.57</v>
-      </c>
-      <c r="U16">
-        <v>1.28</v>
-      </c>
-      <c r="V16">
-        <v>1.38</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2392,91 +2392,91 @@
         <v>88</v>
       </c>
       <c r="G17">
-        <v>1.69</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>3.74</v>
+        <v>3.9</v>
       </c>
       <c r="I17">
-        <v>4.57</v>
+        <v>1.53</v>
       </c>
       <c r="J17">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L17">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M17">
+        <v>3.3</v>
+      </c>
+      <c r="N17">
+        <v>1.81</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1.41</v>
+      </c>
+      <c r="Q17">
+        <v>2.7</v>
+      </c>
+      <c r="R17">
+        <v>1.75</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1.57</v>
+      </c>
+      <c r="U17">
+        <v>1.28</v>
+      </c>
+      <c r="V17">
+        <v>1.38</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1.93</v>
+      </c>
+      <c r="AC17">
+        <v>6.9</v>
+      </c>
+      <c r="AD17">
+        <v>2.3</v>
+      </c>
+      <c r="AE17">
+        <v>1.31</v>
+      </c>
+      <c r="AF17">
+        <v>1.56</v>
+      </c>
+      <c r="AG17">
+        <v>1.93</v>
+      </c>
+      <c r="AH17">
+        <v>2.41</v>
+      </c>
+      <c r="AI17">
         <v>3.4</v>
-      </c>
-      <c r="N17">
-        <v>1.84</v>
-      </c>
-      <c r="O17">
-        <v>1.92</v>
-      </c>
-      <c r="P17">
-        <v>1.36</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>1.83</v>
-      </c>
-      <c r="S17">
-        <v>1.83</v>
-      </c>
-      <c r="T17">
-        <v>1.15</v>
-      </c>
-      <c r="U17">
-        <v>1.2</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>3</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>2.96</v>
-      </c>
-      <c r="AA17">
-        <v>2.96</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2606,13 +2606,13 @@
         <v>90</v>
       </c>
       <c r="G19">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -2627,10 +2627,10 @@
         <v>3.08</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O19">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="P19">
         <v>1.41</v>
